--- a/data/trans_camb/P16A04-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A04-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A04-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A04-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-0,04; 3,21</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 0,62</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-2,58; 3,24</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-3,06; 1,76</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 2,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 0,97</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>324,59%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-14,67%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9,59%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-20,4%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,02%</t>
         </is>
       </c>
     </row>
@@ -811,27 +811,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-62,39; 224,65</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-73,33; 152,84</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,18; 329,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,94; 136,21</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 2,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 2,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 2,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,43; 0,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,48; 0,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,85; 0,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,77; 0,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 0,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 1,02</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,96%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,23; 391,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,78; 416,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,64; 483,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,08; 15,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,19; 9,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,6; 51,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,04; 50,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,83; 38,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,02; 65,7</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,26</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,02; 2,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,6; 4,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,43; 7,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 3,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 3,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,15; 6,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 2,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,49; 3,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,76; 6,04</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>313,77%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>691,48%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1507,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>170,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>130,95%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>466,16%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>205,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>268,99%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>723,18%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,2; inf</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,79; 877,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>94,54; 2132,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,4; 1267,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,75; 1403,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>206,52; 2982,94</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,38</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 4,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 2,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,71; 0,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 3,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,53; 1,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,2; 0,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,12; 3,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,64; 1,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,85; 0,14</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>129,69%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,95%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,98%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,04%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,04%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,6%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,57%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,05; 513,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,05; 295,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,67; 341,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,06; 203,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,23; 100,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,15; 24,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 201,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,29; 88,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,11; 15,16</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,14</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,9; 9,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 4,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 1,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 6,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; 3,71</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,97; 2,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,16; 6,48</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 2,88</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 1,35</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1017,07%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>273,92%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,03%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>101,76%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,65%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,92%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>238,93%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,75%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,83%</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,53; 544,05</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,77; 483,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,61; 287,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,42; 839,33</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,25; 442,68</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,61; 232,32</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,62</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 1,79</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 1,93</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 5,82</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,74; 1,28</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,09; 0,54</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 5,03</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,22; 0,92</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,53; 0,5</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,64; 4,54</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,67%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>220,75%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,15%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,52%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,04%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,32%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,11%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>133,12%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,8; 546,47</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,49; 510,09</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,55; 1171,45</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 214,98</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 104,65</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,03; 459,42</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,78; 98,84</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,39; 56,13</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,19; 378,6</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,08</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,79; 1,21</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 3,3</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,85; 5,28</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 2,38</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 3,6</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,54; 7,0</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 1,38</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,56; 2,9</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,45; 5,57</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,62%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,96%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>173,11%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>110,18%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>205,98%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>546,41%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,86%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>126,25%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>306,98%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,26; 121,4</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,87; 315,34</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,3; 521,18</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,78; 466,1</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,77; 724,51</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>141,46; 1392,61</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,19; 145,76</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,94; 315,48</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>133,74; 623,82</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,86</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,97; 2,17</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,27; -1,07</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,74; -1,59</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 2,52</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,69; 1,49</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; 2,35</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 1,96</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,38; -0,18</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,03; -0,45</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,38%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,07%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,88%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,37%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,74%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,22%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,6%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,5; 69,3</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,53; -35,03</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,47; -44,11</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,55; 163,8</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,4; 99,38</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,07; 314,49</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,25; 78,64</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,96; -6,93</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,14; 3,87</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 1,81</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 0,92</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 1,31</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 1,47</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 0,81</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 1,95</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 1,44</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 0,65</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 1,32</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,23%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,7%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,09%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,64%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,9%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,59%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,66; 117,55</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,8; 61,16</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,21; 87,03</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 81,2</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,23; 42,96</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,02; 103,21</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,56; 81,36</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,44; 36,41</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,19; 73,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A04-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A04-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,69; 9,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,62</t>
+          <t>-1,17; 0,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,14; 8,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 1,76</t>
+          <t>-2,89; 2,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,67; 7,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 0,97</t>
+          <t>-1,7; 1,07</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1460,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-14,67%</t>
+          <t>-20,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>164,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-20,4%</t>
+          <t>-15,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>319,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-17,02%</t>
+          <t>-16,84%</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,16; 588,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-73,33; 152,84</t>
+          <t>-71,78; 175,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>88,24; 917,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-70,94; 136,21</t>
+          <t>-70,84; 156,89</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,29</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 2,17</t>
+          <t>-1,16; 2,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 0,88</t>
+          <t>-2,82; 0,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,02</t>
+          <t>-1,5; 0,97</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32,96%</t>
+          <t>29,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-29,51%</t>
+          <t>-29,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-11,96%</t>
+          <t>-13,39%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-66,64; 483,11</t>
+          <t>-67,27; 467,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-65,6; 51,57</t>
+          <t>-65,65; 50,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-52,02; 65,7</t>
+          <t>-53,06; 65,28</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>4,25</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,43; 7,38</t>
+          <t>2,39; 7,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,3</t>
+          <t>2,15; 6,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,04</t>
+          <t>2,73; 6,05</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1507,49%</t>
+          <t>1502,55%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>466,16%</t>
+          <t>464,9%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>723,18%</t>
+          <t>720,79%</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>94,54; 2132,03</t>
+          <t>93,83; 2127,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>206,52; 2982,94</t>
+          <t>208,49; 3016,67</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-1,52</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,82</t>
+          <t>-0,81; 4,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 0,97</t>
+          <t>-2,66; 1,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 3,91</t>
+          <t>-2,93; 2,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 0,08</t>
+          <t>-4,43; -0,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 3,62</t>
+          <t>-1,24; 2,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 0,14</t>
+          <t>-3,01; -0,15</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>129,69%</t>
+          <t>74,65%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-52,98%</t>
+          <t>-51,04%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>46,04%</t>
+          <t>-10,43%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-55,99%</t>
+          <t>-64,81%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>75,6%</t>
+          <t>19,77%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-53,57%</t>
+          <t>-59,05%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,05; 513,88</t>
+          <t>-42,48; 414,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-97,67; 341,02</t>
+          <t>-97,54; 373,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,06; 203,65</t>
+          <t>-66,25; 128,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-86,15; 24,11</t>
+          <t>-90,43; -2,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 201,8</t>
+          <t>-39,58; 146,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-81,11; 15,16</t>
+          <t>-83,64; 4,44</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,77</t>
+          <t>-0,94; 1,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 1,35</t>
+          <t>-1,38; 1,36</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>74,03%</t>
+          <t>72,71%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-5,92%</t>
+          <t>-5,74%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>9,56%</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-68,61; 287,18</t>
+          <t>-68,35; 284,39</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-59,61; 232,32</t>
+          <t>-59,88; 232,92</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>2,58</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,4; 5,82</t>
+          <t>0,34; 5,73</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 5,03</t>
+          <t>-0,83; 4,99</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,64; 4,54</t>
+          <t>0,57; 4,49</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>220,75%</t>
+          <t>217,22%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>85,04%</t>
+          <t>83,92%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>133,12%</t>
+          <t>131,08%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 1171,45</t>
+          <t>-6,99; 1165,41</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-25,03; 459,42</t>
+          <t>-25,06; 460,7</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>9,19; 378,6</t>
+          <t>7,48; 373,86</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>3,54</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,85; 5,28</t>
+          <t>0,74; 5,09</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,54; 7,0</t>
+          <t>1,09; 6,53</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,57</t>
+          <t>1,39; 5,04</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>173,11%</t>
+          <t>163,55%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>546,41%</t>
+          <t>454,8%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>306,98%</t>
+          <t>266,71%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>20,3; 521,18</t>
+          <t>17,01; 499,89</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>141,46; 1392,61</t>
+          <t>69,35; 1173,56</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>133,74; 623,82</t>
+          <t>92,89; 557,87</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-2,06</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,74; -1,59</t>
+          <t>-4,93; -1,8</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 2,35</t>
+          <t>-2,28; 1,82</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-3,03; -0,45</t>
+          <t>-3,17; -0,75</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-79,07%</t>
+          <t>-83,71%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-29,74%</t>
+          <t>-32,65%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-59,6%</t>
+          <t>-65,76%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-94,47; -44,11</t>
+          <t>-96,8; -57,21</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-75,07; 314,49</t>
+          <t>-75,08; 205,92</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-81,14; 3,87</t>
+          <t>-84,68; -20,92</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,62</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,31</t>
+          <t>-0,35; 1,18</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,95</t>
+          <t>-0,01; 1,71</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,32</t>
+          <t>0,04; 1,13</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>29,7%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>45,64%</t>
+          <t>37,93%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>39,59%</t>
+          <t>30,94%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 87,03</t>
+          <t>-18,02; 79,48</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>8,02; 103,21</t>
+          <t>-0,71; 91,75</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>9,19; 73,45</t>
+          <t>1,85; 64,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A04-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A04-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 9,06</t>
+          <t>2,46; 8,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 3,21</t>
+          <t>-0,05; 3,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 0,58</t>
+          <t>-1,43; 0,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 8,4</t>
+          <t>0,73; 8,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 3,24</t>
+          <t>-2,24; 3,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 2,26</t>
+          <t>-3,16; 2,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,67; 7,43</t>
+          <t>2,65; 7,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 2,43</t>
+          <t>-0,81; 2,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,07</t>
+          <t>-1,64; 1,23</t>
         </is>
       </c>
     </row>
@@ -806,39 +806,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,16; 588,3</t>
+          <t>9,54; 668,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-62,39; 224,65</t>
+          <t>-63,94; 262,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-71,78; 175,22</t>
+          <t>-74,08; 181,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>88,24; 917,56</t>
+          <t>103,13; 1026,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-42,18; 329,69</t>
+          <t>-39,19; 349,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-70,84; 156,89</t>
+          <t>-72,05; 182,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 2,7</t>
+          <t>-1,02; 2,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,28</t>
+          <t>-0,87; 2,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,13</t>
+          <t>-1,09; 2,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 0,16</t>
+          <t>-3,66; 0,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 0,01</t>
+          <t>-3,69; -0,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 0,88</t>
+          <t>-2,84; 0,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 0,76</t>
+          <t>-1,78; 0,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,55</t>
+          <t>-1,68; 0,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 0,97</t>
+          <t>-1,53; 0,91</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-66,23; 391,98</t>
+          <t>-66,15; 548,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-59,78; 416,99</t>
+          <t>-51,83; 437,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-67,27; 467,35</t>
+          <t>-75,06; 391,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-83,08; 15,83</t>
+          <t>-86,9; 5,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-83,19; 9,49</t>
+          <t>-84,81; 5,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-65,65; 50,8</t>
+          <t>-66,58; 47,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-63,04; 50,08</t>
+          <t>-63,45; 48,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-61,83; 38,82</t>
+          <t>-59,75; 53,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-53,06; 65,28</t>
+          <t>-53,81; 60,89</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 2,51</t>
+          <t>-0,02; 2,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 4,28</t>
+          <t>0,59; 4,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 7,4</t>
+          <t>2,33; 7,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 3,47</t>
+          <t>-0,28; 3,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 3,11</t>
+          <t>-0,49; 3,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,27</t>
+          <t>2,03; 6,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,46</t>
+          <t>0,18; 2,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,03</t>
+          <t>0,44; 2,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,73; 6,05</t>
+          <t>2,84; 6,25</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-49,2; inf</t>
+          <t>-46,7; inf</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,79; 877,08</t>
+          <t>-62,32; inf</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>93,83; 2127,24</t>
+          <t>67,93; 1807,83</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1267,56</t>
+          <t>-14,84; 1230,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,75; 1403,87</t>
+          <t>24,95; 1551,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>208,49; 3016,67</t>
+          <t>220,3; 3498,23</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 4,36</t>
+          <t>-0,8; 4,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 2,84</t>
+          <t>-1,3; 2,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 1,19</t>
+          <t>-2,67; 1,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 2,37</t>
+          <t>-2,76; 2,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 1,87</t>
+          <t>-2,93; 2,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,43; -0,22</t>
+          <t>-4,45; -0,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 2,32</t>
+          <t>-1,17; 2,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 1,68</t>
+          <t>-1,64; 1,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,01; -0,15</t>
+          <t>-2,92; -0,13</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,48; 414,81</t>
+          <t>-39,27; 434,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-56,05; 295,81</t>
+          <t>-56,47; 372,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-97,54; 373,32</t>
+          <t>-97,74; 319,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-66,25; 128,41</t>
+          <t>-64,07; 124,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-72,23; 100,55</t>
+          <t>-67,31; 125,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-90,43; -2,42</t>
+          <t>-88,24; -7,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-39,58; 146,37</t>
+          <t>-36,37; 140,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-50,29; 88,0</t>
+          <t>-50,41; 97,65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-83,64; 4,44</t>
+          <t>-82,54; 0,01</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,9; 9,88</t>
+          <t>1,79; 9,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 4,2</t>
+          <t>-0,34; 4,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,69</t>
+          <t>-1,08; 1,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 6,24</t>
+          <t>-0,71; 6,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 3,71</t>
+          <t>-2,68; 3,81</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 2,22</t>
+          <t>-3,19; 2,03</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,16; 6,48</t>
+          <t>1,13; 6,77</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 2,88</t>
+          <t>-0,95; 2,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,36</t>
+          <t>-1,5; 1,43</t>
         </is>
       </c>
     </row>
@@ -1670,39 +1670,39 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-40,53; 544,05</t>
+          <t>-33,58; 633,78</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-75,77; 483,17</t>
+          <t>-77,19; 417,65</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-68,35; 284,39</t>
+          <t>-70,62; 274,73</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>17,42; 839,33</t>
+          <t>25,59; 856,75</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-52,25; 442,68</t>
+          <t>-52,6; 364,32</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-59,88; 232,92</t>
+          <t>-59,75; 220,76</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 1,79</t>
+          <t>-1,82; 1,77</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 1,93</t>
+          <t>-2,06; 1,75</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,34; 5,73</t>
+          <t>0,75; 5,99</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 1,28</t>
+          <t>-3,77; 1,38</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 0,54</t>
+          <t>-3,91; 0,63</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 4,99</t>
+          <t>-0,78; 4,98</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,92</t>
+          <t>-2,19; 0,99</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 0,5</t>
+          <t>-2,39; 0,63</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,57; 4,49</t>
+          <t>0,68; 4,44</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-85,8; 546,47</t>
+          <t>-83,73; 492,14</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-88,49; 510,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 1165,41</t>
+          <t>-4,1; 1165,76</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 214,98</t>
+          <t>-100,0; 147,49</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 104,65</t>
+          <t>-100,0; 124,32</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-25,06; 460,7</t>
+          <t>-25,6; 464,18</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-79,78; 98,84</t>
+          <t>-78,51; 100,5</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-81,39; 56,13</t>
+          <t>-81,13; 70,22</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>7,48; 373,86</t>
+          <t>19,85; 396,27</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 1,21</t>
+          <t>-1,88; 1,16</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 3,3</t>
+          <t>-0,33; 3,32</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,74; 5,09</t>
+          <t>0,76; 5,09</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 2,38</t>
+          <t>-0,15; 2,38</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,45; 3,6</t>
+          <t>0,4; 3,47</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,09; 6,53</t>
+          <t>0,98; 6,26</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,38</t>
+          <t>-0,6; 1,27</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,9</t>
+          <t>0,51; 2,96</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,04</t>
+          <t>1,56; 5,07</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-70,26; 121,4</t>
+          <t>-72,54; 113,23</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 315,34</t>
+          <t>-16,73; 293,84</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>17,01; 499,89</t>
+          <t>21,39; 440,8</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-39,78; 466,1</t>
+          <t>-25,52; 558,97</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>4,77; 724,51</t>
+          <t>8,17; 754,82</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>69,35; 1173,56</t>
+          <t>87,92; 1183,82</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-34,19; 145,76</t>
+          <t>-36,71; 131,49</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>23,94; 315,48</t>
+          <t>20,27; 325,18</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>92,89; 557,87</t>
+          <t>91,62; 545,2</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 2,17</t>
+          <t>-1,95; 2,36</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-4,27; -1,07</t>
+          <t>-4,1; -0,97</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,93; -1,8</t>
+          <t>-4,99; -1,76</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 2,52</t>
+          <t>-0,92; 2,57</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 1,49</t>
+          <t>-1,87; 1,25</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,82</t>
+          <t>-2,23; 2,01</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,96</t>
+          <t>-0,86; 1,85</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-2,38; -0,18</t>
+          <t>-2,63; -0,27</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-3,17; -0,75</t>
+          <t>-3,28; -0,68</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-40,5; 69,3</t>
+          <t>-40,51; 82,71</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-85,53; -35,03</t>
+          <t>-84,58; -26,69</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-96,8; -57,21</t>
+          <t>-96,38; -51,54</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-28,55; 163,8</t>
+          <t>-29,01; 159,82</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-53,4; 99,38</t>
+          <t>-56,43; 76,95</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-75,08; 205,92</t>
+          <t>-74,8; 131,82</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-22,25; 78,64</t>
+          <t>-22,36; 73,78</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-64,96; -6,93</t>
+          <t>-66,64; -9,17</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-84,68; -20,92</t>
+          <t>-84,65; -18,28</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,81</t>
+          <t>0,25; 1,9</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 0,92</t>
+          <t>-0,47; 0,92</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,18</t>
+          <t>-0,41; 1,1</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 1,47</t>
+          <t>-0,15; 1,35</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,81</t>
+          <t>-0,75; 0,76</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 1,71</t>
+          <t>0,01; 1,65</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,44</t>
+          <t>0,31; 1,41</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 0,65</t>
+          <t>-0,41; 0,63</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,04; 1,13</t>
+          <t>0,07; 1,16</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>13,66; 117,55</t>
+          <t>11,46; 130,47</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 61,16</t>
+          <t>-22,72; 60,72</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-18,02; 79,48</t>
+          <t>-18,64; 74,33</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 81,2</t>
+          <t>-6,11; 71,1</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-28,23; 42,96</t>
+          <t>-28,31; 39,9</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 91,75</t>
+          <t>0,17; 86,98</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>13,56; 81,36</t>
+          <t>13,9; 80,93</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-16,44; 36,41</t>
+          <t>-18,29; 36,03</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>1,85; 64,01</t>
+          <t>3,02; 65,44</t>
         </is>
       </c>
     </row>
